--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ffxii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069662AC-7E30-4C69-AD0C-BB6D115EE1BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A1E5E-71D3-49CC-A7B2-59B583F43518}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{55C4FCAD-EFE2-40AF-9106-0B3E96662368}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="605">
   <si>
     <t>Memories of Yore</t>
   </si>
@@ -563,9 +563,6 @@
     <t>+330 gil</t>
   </si>
   <si>
-    <t>Magick Shard*</t>
-  </si>
-  <si>
     <t>Holy Mote x1</t>
   </si>
   <si>
@@ -1915,12 +1912,18 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>Magick Shard [Holy Mote]*</t>
+  </si>
+  <si>
+    <t>Magick Shard [Scathe Mote]*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1964,6 +1967,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1992,7 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2021,6 +2032,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -2336,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773B65B1-3F0A-4B57-83B8-A43E1AC3B434}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,22 +2366,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2392,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2452,7 +2464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2552,7 +2564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -2644,7 +2656,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
@@ -2688,7 +2700,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>104</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -2900,7 +2912,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="3" t="s">
@@ -2912,7 +2924,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>119</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="3" t="s">
@@ -2944,7 +2956,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="3" t="s">
@@ -2956,7 +2968,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -3000,7 +3012,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>129</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="3" t="s">
@@ -3032,7 +3044,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="3" t="s">
@@ -3044,7 +3056,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>134</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="3" t="s">
@@ -3076,7 +3088,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="3" t="s">
@@ -3088,7 +3100,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>139</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
@@ -3120,7 +3132,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="3" t="s">
@@ -3132,7 +3144,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>144</v>
       </c>
@@ -3152,7 +3164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="3" t="s">
@@ -3164,7 +3176,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="3" t="s">
@@ -3176,7 +3188,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3196,7 +3208,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>152</v>
       </c>
@@ -3216,31 +3228,31 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="D51" s="2">
         <v>8</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2">
         <v>8</v>
@@ -3248,11 +3260,11 @@
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -3260,31 +3272,31 @@
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>157</v>
+        <v>604</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D54" s="2">
         <v>8</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="2">
         <v>8</v>
@@ -3292,11 +3304,11 @@
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2">
         <v>8</v>
@@ -3304,31 +3316,31 @@
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
@@ -3336,43 +3348,44 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="2">
         <v>3</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" s="2">
         <v>3</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -3380,11 +3393,11 @@
       <c r="E61" s="9"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="2">
         <v>10</v>
@@ -3392,31 +3405,31 @@
       <c r="E62" s="9"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="2">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="2">
-        <v>4</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="F63" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" s="2">
         <v>3</v>
@@ -3424,11 +3437,11 @@
       <c r="E64" s="9"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="2">
         <v>7</v>
@@ -3436,31 +3449,31 @@
       <c r="E65" s="9"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
       </c>
       <c r="E66" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="2">
         <v>3</v>
@@ -3468,31 +3481,31 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D68" s="2">
         <v>3</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="2">
         <v>2</v>
@@ -3500,11 +3513,11 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D70" s="2">
         <v>3</v>
@@ -3512,15 +3525,15 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D71" s="2">
         <v>2</v>
@@ -3532,11 +3545,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
@@ -3544,11 +3557,11 @@
       <c r="E72" s="9"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="2">
         <v>3</v>
@@ -3556,31 +3569,31 @@
       <c r="E73" s="9"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="2">
-        <v>2</v>
-      </c>
-      <c r="E74" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="2">
         <v>2</v>
@@ -3588,11 +3601,11 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="2">
         <v>3</v>
@@ -3600,31 +3613,31 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
       <c r="E77" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D78" s="2">
         <v>3</v>
@@ -3632,11 +3645,11 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" s="2">
         <v>4</v>
@@ -3644,31 +3657,31 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C80" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="2">
+        <v>4</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="2">
-        <v>4</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="F80" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="8"/>
       <c r="C81" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D81" s="2">
         <v>5</v>
@@ -3676,11 +3689,11 @@
       <c r="E81" s="9"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="8"/>
       <c r="C82" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2">
         <v>7</v>
@@ -3688,31 +3701,31 @@
       <c r="E82" s="9"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>221</v>
-      </c>
       <c r="F83" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D84" s="2">
         <v>3</v>
@@ -3720,11 +3733,11 @@
       <c r="E84" s="9"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="8"/>
       <c r="C85" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D85" s="4">
         <v>8</v>
@@ -3734,13 +3747,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -3749,14 +3762,14 @@
         <v>72</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="8"/>
       <c r="C87" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D87" s="2">
         <v>2</v>
@@ -3764,11 +3777,11 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="8"/>
       <c r="C88" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
@@ -3776,31 +3789,31 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="2">
+        <v>2</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D89" s="2">
-        <v>2</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D90" s="2">
         <v>4</v>
@@ -3810,29 +3823,29 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D91" s="2">
         <v>5</v>
       </c>
       <c r="E91" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="8"/>
       <c r="C92" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -3840,11 +3853,11 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="8"/>
       <c r="C93" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D93" s="2">
         <v>3</v>
@@ -3852,15 +3865,15 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
@@ -3872,11 +3885,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D95" s="2">
         <v>2</v>
@@ -3884,11 +3897,11 @@
       <c r="E95" s="9"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D96" s="2">
         <v>3</v>
@@ -3896,31 +3909,31 @@
       <c r="E96" s="9"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="C97" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="D97" s="4">
         <v>5</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
@@ -3928,11 +3941,11 @@
       <c r="E98" s="9"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
@@ -3940,31 +3953,31 @@
       <c r="E99" s="9"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="C100" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="2">
+        <v>4</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="2">
-        <v>4</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="F100" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="8"/>
       <c r="C101" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D101" s="2">
         <v>2</v>
@@ -3972,11 +3985,11 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="8"/>
       <c r="C102" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D102" s="2">
         <v>7</v>
@@ -3984,31 +3997,31 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="C103" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D103" s="2">
         <v>3</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D104" s="2">
         <v>3</v>
@@ -4016,11 +4029,11 @@
       <c r="E104" s="9"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D105" s="2">
         <v>4</v>
@@ -4028,31 +4041,31 @@
       <c r="E105" s="9"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="C106" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" s="2">
+        <v>4</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D106" s="2">
-        <v>4</v>
-      </c>
-      <c r="E106" s="9" t="s">
+      <c r="F106" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="8"/>
       <c r="C107" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D107" s="2">
         <v>2</v>
@@ -4064,7 +4077,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="8"/>
       <c r="C108" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D108" s="2">
         <v>1</v>
@@ -4072,27 +4085,27 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="C109" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
       </c>
       <c r="E109" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="8"/>
       <c r="C110" s="3" t="s">
@@ -4104,11 +4117,11 @@
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="8"/>
       <c r="C111" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D111" s="2">
         <v>5</v>
@@ -4116,31 +4129,31 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="C112" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D112" s="2">
-        <v>4</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="F112" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="8"/>
       <c r="C113" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D113" s="2">
         <v>3</v>
@@ -4148,11 +4161,11 @@
       <c r="E113" s="9"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="8"/>
       <c r="C114" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D114" s="2">
         <v>9</v>
@@ -4160,31 +4173,31 @@
       <c r="E114" s="9"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="C115" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D115" s="2">
         <v>3</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="8"/>
       <c r="C116" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D116" s="2">
         <v>3</v>
@@ -4192,11 +4205,11 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="8"/>
       <c r="C117" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D117" s="2">
         <v>3</v>
@@ -4204,31 +4217,31 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="C118" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="2">
+        <v>2</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D118" s="2">
-        <v>2</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>287</v>
-      </c>
       <c r="F118" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
@@ -4236,11 +4249,11 @@
       <c r="E119" s="9"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D120" s="2">
         <v>3</v>
@@ -4248,27 +4261,27 @@
       <c r="E120" s="9"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="C121" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D121" s="2">
         <v>5</v>
       </c>
       <c r="E121" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="3" t="s">
@@ -4280,11 +4293,11 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D123" s="2">
         <v>4</v>
@@ -4292,27 +4305,27 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D124" s="2">
         <v>5</v>
       </c>
       <c r="E124" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="3" t="s">
@@ -4324,11 +4337,11 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D126" s="2">
         <v>7</v>
@@ -4336,31 +4349,31 @@
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="C127" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="D127" s="2">
         <v>8</v>
       </c>
       <c r="E127" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D128" s="2">
         <v>6</v>
@@ -4368,11 +4381,11 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D129" s="2">
         <v>7</v>
@@ -4382,29 +4395,29 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D130" s="4">
         <v>3</v>
       </c>
       <c r="E130" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F130" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D131" s="4">
         <v>3</v>
@@ -4412,31 +4425,31 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="C132" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D132" s="2">
         <v>3</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D133" s="2">
         <v>2</v>
@@ -4444,11 +4457,11 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D134" s="2">
         <v>3</v>
@@ -4456,31 +4469,31 @@
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="C135" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+      <c r="E135" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D135" s="2">
-        <v>2</v>
-      </c>
-      <c r="E135" s="9" t="s">
+      <c r="F135" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F135" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D136" s="2">
         <v>2</v>
@@ -4488,11 +4501,11 @@
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D137" s="2">
         <v>4</v>
@@ -4500,31 +4513,31 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="C138" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="2">
+        <v>2</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D138" s="2">
-        <v>2</v>
-      </c>
-      <c r="E138" s="9" t="s">
+      <c r="F138" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F138" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D139" s="2">
         <v>5</v>
@@ -4532,11 +4545,11 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D140" s="2">
         <v>6</v>
@@ -4544,31 +4557,31 @@
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="C141" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="2">
+        <v>2</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D141" s="2">
-        <v>2</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>336</v>
-      </c>
       <c r="F141" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
@@ -4576,11 +4589,11 @@
       <c r="E142" s="9"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D143" s="2">
         <v>1</v>
@@ -4588,31 +4601,31 @@
       <c r="E143" s="9"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="C144" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="2">
+        <v>2</v>
+      </c>
+      <c r="E144" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D144" s="2">
-        <v>2</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="F144" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D145" s="2">
         <v>8</v>
@@ -4620,11 +4633,11 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D146" s="2">
         <v>1</v>
@@ -4632,15 +4645,15 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="C147" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D147" s="2">
         <v>2</v>
@@ -4649,14 +4662,14 @@
         <v>18</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
@@ -4664,31 +4677,31 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
     </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="C149" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2</v>
+      </c>
+      <c r="E149" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D149" s="2">
-        <v>2</v>
-      </c>
-      <c r="E149" s="9" t="s">
+      <c r="F149" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="F149" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="8"/>
       <c r="C150" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D150" s="2">
         <v>1</v>
@@ -4696,11 +4709,11 @@
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D151" s="2">
         <v>2</v>
@@ -4710,29 +4723,29 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="C152" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="2">
+        <v>2</v>
+      </c>
+      <c r="E152" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D152" s="2">
-        <v>2</v>
-      </c>
-      <c r="E152" s="9" t="s">
+      <c r="F152" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="F152" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D153" s="2">
         <v>2</v>
@@ -4740,11 +4753,11 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D154" s="2">
         <v>3</v>
@@ -4752,31 +4765,31 @@
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
     </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="C155" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="D155" s="2">
         <v>3</v>
       </c>
       <c r="E155" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="F155" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D156" s="2">
         <v>2</v>
@@ -4784,11 +4797,11 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
-    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D157" s="2">
         <v>3</v>
@@ -4796,31 +4809,31 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="C158" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D158" s="2">
+        <v>2</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D158" s="2">
-        <v>2</v>
-      </c>
-      <c r="E158" s="9" t="s">
+      <c r="F158" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F158" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D159" s="2">
         <v>2</v>
@@ -4828,11 +4841,11 @@
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="8"/>
       <c r="C160" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D160" s="2">
         <v>5</v>
@@ -4840,31 +4853,31 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="C161" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="D161" s="2">
         <v>3</v>
       </c>
       <c r="E161" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F161" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="8"/>
       <c r="C162" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D162" s="2">
         <v>2</v>
@@ -4872,11 +4885,11 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="8"/>
       <c r="C163" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D163" s="2">
         <v>3</v>
@@ -4886,25 +4899,25 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="C164" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="2">
+        <v>2</v>
+      </c>
+      <c r="E164" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D164" s="2">
-        <v>2</v>
-      </c>
-      <c r="E164" s="9" t="s">
+      <c r="F164" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="F164" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="3" t="s">
@@ -4916,11 +4929,11 @@
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D166" s="2">
         <v>6</v>
@@ -4928,27 +4941,27 @@
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="C167" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="D167" s="2">
         <v>3</v>
       </c>
       <c r="E167" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F167" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="8"/>
       <c r="C168" s="3" t="s">
@@ -4960,11 +4973,11 @@
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="8"/>
       <c r="C169" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D169" s="2">
         <v>4</v>
@@ -4972,27 +4985,27 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="C170" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D170" s="2">
         <v>4</v>
       </c>
       <c r="E170" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F170" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="8"/>
       <c r="C171" s="3" t="s">
@@ -5004,11 +5017,11 @@
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="8"/>
       <c r="C172" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D172" s="2">
         <v>4</v>
@@ -5016,31 +5029,31 @@
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B173" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="C173" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D173" s="2">
+        <v>4</v>
+      </c>
+      <c r="E173" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D173" s="2">
-        <v>4</v>
-      </c>
-      <c r="E173" s="9" t="s">
+      <c r="F173" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="F173" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="8"/>
       <c r="C174" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D174" s="2">
         <v>2</v>
@@ -5048,11 +5061,11 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="8"/>
       <c r="C175" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D175" s="2">
         <v>5</v>
@@ -5060,12 +5073,12 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>91</v>
@@ -5074,13 +5087,13 @@
         <v>5</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="3" t="s">
@@ -5092,11 +5105,11 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D178" s="2">
         <v>5</v>
@@ -5104,31 +5117,31 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="C179" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="D179" s="2">
         <v>6</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="8"/>
       <c r="C180" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D180" s="2">
         <v>4</v>
@@ -5136,11 +5149,11 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="8"/>
       <c r="C181" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D181" s="2">
         <v>3</v>
@@ -5148,12 +5161,12 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>149</v>
@@ -5162,13 +5175,13 @@
         <v>2</v>
       </c>
       <c r="E182" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F182" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="F182" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="3" t="s">
@@ -5180,11 +5193,11 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D184" s="2">
         <v>6</v>
@@ -5192,12 +5205,12 @@
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
-    <row r="185" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>96</v>
@@ -5206,17 +5219,17 @@
         <v>6</v>
       </c>
       <c r="E185" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F185" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="F185" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D186" s="2">
         <v>4</v>
@@ -5224,11 +5237,11 @@
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
     </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D187" s="2">
         <v>6</v>
@@ -5236,12 +5249,12 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>149</v>
@@ -5250,17 +5263,17 @@
         <v>4</v>
       </c>
       <c r="E188" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F188" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="F188" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D189" s="2">
         <v>5</v>
@@ -5268,11 +5281,11 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D190" s="2">
         <v>6</v>
@@ -5280,31 +5293,31 @@
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
     </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="C191" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D191" s="2">
         <v>8</v>
       </c>
       <c r="E191" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F191" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="F191" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D192" s="2">
         <v>7</v>
@@ -5312,11 +5325,11 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="8"/>
       <c r="C193" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D193" s="2">
         <v>7</v>
@@ -5324,31 +5337,31 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="C194" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="D194" s="2">
         <v>4</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D195" s="2">
         <v>6</v>
@@ -5356,11 +5369,11 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D196" s="2">
         <v>7</v>
@@ -5368,31 +5381,31 @@
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="C197" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D197" s="2">
         <v>9</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="8"/>
       <c r="C198" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D198" s="2">
         <v>7</v>
@@ -5400,11 +5413,11 @@
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="8"/>
       <c r="C199" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D199" s="2">
         <v>8</v>
@@ -5412,31 +5425,31 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B200" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>426</v>
-      </c>
       <c r="C200" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D200" s="2">
         <v>9</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F200" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D201" s="2">
         <v>7</v>
@@ -5444,11 +5457,11 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D202" s="2">
         <v>8</v>
@@ -5456,31 +5469,31 @@
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
     </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B203" s="8" t="s">
-        <v>429</v>
-      </c>
       <c r="C203" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D203" s="2">
         <v>9</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D204" s="2">
         <v>7</v>
@@ -5488,11 +5501,11 @@
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
     </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D205" s="2">
         <v>8</v>
@@ -5500,31 +5513,31 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B206" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="C206" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D206" s="2">
+        <v>4</v>
+      </c>
+      <c r="E206" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="D206" s="2">
-        <v>4</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>435</v>
-      </c>
       <c r="F206" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
       <c r="C207" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D207" s="2">
         <v>2</v>
@@ -5532,11 +5545,11 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
       <c r="C208" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D208" s="2">
         <v>3</v>
@@ -5544,31 +5557,31 @@
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
     </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B209" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="C209" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D209" s="2">
         <v>5</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
       <c r="C210" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D210" s="2">
         <v>2</v>
@@ -5590,25 +5603,25 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B212" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="C212" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="D212" s="2">
         <v>5</v>
       </c>
       <c r="E212" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F212" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F212" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="7"/>
       <c r="C213" s="3" t="s">
@@ -5620,11 +5633,11 @@
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
     </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D214" s="2">
         <v>9</v>
@@ -5632,12 +5645,12 @@
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B215" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>101</v>
@@ -5646,13 +5659,13 @@
         <v>5</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="3" t="s">
@@ -5664,11 +5677,11 @@
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="7"/>
       <c r="C217" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D217" s="2">
         <v>9</v>
@@ -5676,31 +5689,31 @@
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B218" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="C218" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="D218" s="4">
         <v>3</v>
       </c>
       <c r="E218" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F218" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="F218" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
       <c r="C219" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D219" s="2">
         <v>7</v>
@@ -5708,11 +5721,11 @@
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D220" s="2">
         <v>10</v>
@@ -5720,31 +5733,31 @@
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
     </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="C221" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="2">
+        <v>4</v>
+      </c>
+      <c r="E221" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="2">
-        <v>4</v>
-      </c>
-      <c r="E221" s="9" t="s">
+      <c r="F221" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="F221" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="7"/>
       <c r="C222" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D222" s="2">
         <v>7</v>
@@ -5752,11 +5765,11 @@
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D223" s="2">
         <v>10</v>
@@ -5764,15 +5777,15 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B224" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="C224" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="D224" s="2">
         <v>3</v>
@@ -5788,7 +5801,7 @@
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D225" s="2">
         <v>2</v>
@@ -5796,11 +5809,11 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D226" s="2">
         <v>3</v>
@@ -5808,31 +5821,31 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="C227" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="D227" s="2">
         <v>2</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D228" s="2">
         <v>2</v>
@@ -5840,11 +5853,11 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D229" s="2">
         <v>3</v>
@@ -5852,31 +5865,31 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="C230" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="D230" s="2">
         <v>2</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F230" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D231" s="2">
         <v>2</v>
@@ -5884,11 +5897,11 @@
       <c r="E231" s="9"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D232" s="2">
         <v>1</v>
@@ -5896,31 +5909,31 @@
       <c r="E232" s="9"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="C233" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="D233" s="2">
         <v>2</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F233" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="7"/>
       <c r="C234" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D234" s="2">
         <v>2</v>
@@ -5928,11 +5941,11 @@
       <c r="E234" s="9"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D235" s="2">
         <v>1</v>
@@ -5940,31 +5953,31 @@
       <c r="E235" s="9"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B236" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="C236" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="D236" s="2">
+        <v>2</v>
+      </c>
+      <c r="E236" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D236" s="2">
-        <v>2</v>
-      </c>
-      <c r="E236" s="9" t="s">
-        <v>480</v>
-      </c>
       <c r="F236" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D237" s="2">
         <v>2</v>
@@ -5972,11 +5985,11 @@
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="7"/>
       <c r="C238" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D238" s="2">
         <v>2</v>
@@ -5986,29 +5999,29 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B239" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="C239" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="D239" s="2">
+        <v>2</v>
+      </c>
+      <c r="E239" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D239" s="2">
-        <v>2</v>
-      </c>
-      <c r="E239" s="9" t="s">
-        <v>486</v>
-      </c>
       <c r="F239" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D240" s="2">
         <v>2</v>
@@ -6016,11 +6029,11 @@
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
     </row>
-    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="7"/>
       <c r="C241" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D241" s="2">
         <v>1</v>
@@ -6028,15 +6041,15 @@
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B242" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="C242" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D242" s="2">
         <v>2</v>
@@ -6048,11 +6061,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="7"/>
       <c r="C243" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D243" s="4">
         <v>3</v>
@@ -6060,11 +6073,11 @@
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
-    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="7"/>
       <c r="C244" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D244" s="4">
         <v>15</v>
@@ -6074,29 +6087,29 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B245" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="C245" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="D245" s="2">
         <v>3</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F245" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="7"/>
       <c r="C246" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D246" s="2">
         <v>3</v>
@@ -6104,11 +6117,11 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="7"/>
       <c r="C247" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D247" s="2">
         <v>4</v>
@@ -6116,31 +6129,31 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B248" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="C248" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="D248" s="2">
         <v>1</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F248" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="7"/>
       <c r="C249" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D249" s="2">
         <v>1</v>
@@ -6148,11 +6161,11 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="7"/>
       <c r="C250" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D250" s="2">
         <v>1</v>
@@ -6160,31 +6173,31 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B251" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="C251" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="D251" s="2">
         <v>3</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F251" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="7"/>
       <c r="C252" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D252" s="2">
         <v>3</v>
@@ -6192,11 +6205,11 @@
       <c r="E252" s="9"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="7"/>
       <c r="C253" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D253" s="2">
         <v>4</v>
@@ -6206,29 +6219,29 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B254" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="C254" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D254" s="2">
         <v>3</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F254" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="7"/>
       <c r="C255" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D255" s="2">
         <v>4</v>
@@ -6236,11 +6249,11 @@
       <c r="E255" s="9"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="7"/>
       <c r="C256" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D256" s="2">
         <v>1</v>
@@ -6248,31 +6261,31 @@
       <c r="E256" s="9"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="C257" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="D257" s="2">
+        <v>2</v>
+      </c>
+      <c r="E257" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="D257" s="2">
-        <v>2</v>
-      </c>
-      <c r="E257" s="9" t="s">
-        <v>520</v>
-      </c>
       <c r="F257" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="7"/>
       <c r="C258" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D258" s="2">
         <v>2</v>
@@ -6280,11 +6293,11 @@
       <c r="E258" s="9"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="7"/>
       <c r="C259" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D259" s="2">
         <v>3</v>
@@ -6292,12 +6305,12 @@
       <c r="E259" s="9"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>140</v>
@@ -6306,17 +6319,17 @@
         <v>2</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F260" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="7"/>
       <c r="C261" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D261" s="2">
         <v>3</v>
@@ -6328,7 +6341,7 @@
       <c r="A262" s="6"/>
       <c r="B262" s="7"/>
       <c r="C262" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D262" s="2">
         <v>2</v>
@@ -6336,15 +6349,15 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="D263" s="2">
         <v>2</v>
@@ -6356,51 +6369,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D264" s="2">
+        <v>2</v>
+      </c>
+      <c r="E264" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D264" s="2">
-        <v>2</v>
-      </c>
-      <c r="E264" s="4" t="s">
+      <c r="F264" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="F264" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
+      <c r="B265" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="C265" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="D265" s="2">
         <v>1</v>
       </c>
       <c r="E265" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="F265" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="F265" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="7"/>
       <c r="C266" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D266" s="2">
         <v>2</v>
@@ -6412,7 +6425,7 @@
       <c r="A267" s="6"/>
       <c r="B267" s="7"/>
       <c r="C267" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D267" s="2">
         <v>1</v>
@@ -6420,15 +6433,15 @@
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
     </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B268" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="C268" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="D268" s="2">
         <v>1</v>
@@ -6440,11 +6453,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="7"/>
       <c r="C269" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D269" s="2">
         <v>1</v>
@@ -6452,131 +6465,131 @@
       <c r="E269" s="8"/>
       <c r="F269" s="9"/>
     </row>
-    <row r="270" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="D270" s="2">
         <v>1</v>
       </c>
       <c r="E270" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F270" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="B271" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="D271" s="2">
         <v>3</v>
       </c>
       <c r="E271" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="F271" s="4" t="s">
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="B272" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="C272" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D272" s="2">
+        <v>2</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D272" s="2">
-        <v>2</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="B273" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="D273" s="2">
         <v>1</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="C274" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="D274" s="4">
         <v>1</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F274" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
+      <c r="B275" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="C275" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D275" s="2">
+        <v>2</v>
+      </c>
+      <c r="E275" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="C275" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D275" s="2">
-        <v>2</v>
-      </c>
-      <c r="E275" s="9" t="s">
-        <v>566</v>
-      </c>
       <c r="F275" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="7"/>
       <c r="C276" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D276" s="2">
         <v>2</v>
@@ -6584,41 +6597,41 @@
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
     </row>
-    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="C277" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="2">
+        <v>2</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D277" s="2">
-        <v>2</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="6" t="s">
+      <c r="B278" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="C278" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="D278" s="2">
         <v>33</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F278" s="9" t="s">
         <v>4</v>
@@ -6636,31 +6649,31 @@
       <c r="E279" s="8"/>
       <c r="F279" s="9"/>
     </row>
-    <row r="280" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B280" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="C280" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D280" s="2">
+        <v>2</v>
+      </c>
+      <c r="E280" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="D280" s="2">
-        <v>2</v>
-      </c>
-      <c r="E280" s="8" t="s">
-        <v>578</v>
-      </c>
       <c r="F280" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="7"/>
       <c r="C281" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D281" s="2">
         <v>1</v>
@@ -6668,31 +6681,31 @@
       <c r="E281" s="8"/>
       <c r="F281" s="9"/>
     </row>
-    <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B282" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="C282" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="2">
+        <v>2</v>
+      </c>
+      <c r="E282" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="D282" s="2">
-        <v>2</v>
-      </c>
-      <c r="E282" s="9" t="s">
+      <c r="F282" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="F282" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="7"/>
       <c r="C283" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D283" s="2">
         <v>2</v>
@@ -6700,11 +6713,11 @@
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
     </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="7"/>
       <c r="C284" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D284" s="2">
         <v>7</v>
@@ -6712,31 +6725,31 @@
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
     </row>
-    <row r="285" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B285" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="C285" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="D285" s="2">
         <v>3</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F285" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="7"/>
       <c r="C286" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D286" s="2">
         <v>2</v>
@@ -6748,7 +6761,7 @@
       <c r="A287" s="6"/>
       <c r="B287" s="7"/>
       <c r="C287" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D287" s="2">
         <v>3</v>
@@ -6756,31 +6769,31 @@
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
     </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B288" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="C288" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="D288" s="2">
         <v>1</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F288" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="7"/>
       <c r="C289" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D289" s="2">
         <v>1</v>
@@ -6788,11 +6801,11 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="7"/>
       <c r="C290" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D290" s="2">
         <v>1</v>
@@ -6802,18 +6815,334 @@
     </row>
   </sheetData>
   <mergeCells count="356">
-    <mergeCell ref="A288:A290"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="E288:E290"/>
-    <mergeCell ref="F288:F290"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="E282:E284"/>
-    <mergeCell ref="F282:F284"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="E285:E287"/>
-    <mergeCell ref="F285:F287"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="F155:F157"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="F158:F160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="E161:E163"/>
+    <mergeCell ref="F161:F163"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="F176:F178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="F179:F181"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="E173:E175"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="F188:F190"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="F191:F193"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="E182:E184"/>
+    <mergeCell ref="F182:F184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="F185:F187"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="F200:F202"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="F203:F205"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="F194:F196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="F197:F199"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="F212:F214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="F215:F217"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="E206:E208"/>
+    <mergeCell ref="F206:F208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="F209:F211"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="F224:F226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="E227:E229"/>
+    <mergeCell ref="F227:F229"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="E218:E220"/>
+    <mergeCell ref="F218:F220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="E221:E223"/>
+    <mergeCell ref="F221:F223"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="E230:E232"/>
+    <mergeCell ref="F230:F232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="E233:E235"/>
+    <mergeCell ref="F233:F235"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="F248:F250"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="F251:F253"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="E242:E244"/>
+    <mergeCell ref="F242:F244"/>
+    <mergeCell ref="A245:A247"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="E245:E247"/>
+    <mergeCell ref="F245:F247"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="E260:E262"/>
+    <mergeCell ref="F260:F262"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="B265:B267"/>
+    <mergeCell ref="E265:E267"/>
+    <mergeCell ref="F265:F267"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="E254:E256"/>
+    <mergeCell ref="F254:F256"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="E257:E259"/>
+    <mergeCell ref="F257:F259"/>
     <mergeCell ref="A278:A279"/>
     <mergeCell ref="B278:B279"/>
     <mergeCell ref="E278:E279"/>
@@ -6830,334 +7159,18 @@
     <mergeCell ref="B275:B276"/>
     <mergeCell ref="E275:E276"/>
     <mergeCell ref="F275:F276"/>
-    <mergeCell ref="A260:A262"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="E260:E262"/>
-    <mergeCell ref="F260:F262"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="B265:B267"/>
-    <mergeCell ref="E265:E267"/>
-    <mergeCell ref="F265:F267"/>
-    <mergeCell ref="A254:A256"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="E254:E256"/>
-    <mergeCell ref="F254:F256"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="E257:E259"/>
-    <mergeCell ref="F257:F259"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="F248:F250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="F251:F253"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="E242:E244"/>
-    <mergeCell ref="F242:F244"/>
-    <mergeCell ref="A245:A247"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="E245:E247"/>
-    <mergeCell ref="F245:F247"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="E230:E232"/>
-    <mergeCell ref="F230:F232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="E233:E235"/>
-    <mergeCell ref="F233:F235"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="E224:E226"/>
-    <mergeCell ref="F224:F226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="E227:E229"/>
-    <mergeCell ref="F227:F229"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="E218:E220"/>
-    <mergeCell ref="F218:F220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="E221:E223"/>
-    <mergeCell ref="F221:F223"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="F212:F214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="E215:E217"/>
-    <mergeCell ref="F215:F217"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="E206:E208"/>
-    <mergeCell ref="F206:F208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="F209:F211"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="F200:F202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="F203:F205"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="E194:E196"/>
-    <mergeCell ref="F194:F196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="F197:F199"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="F188:F190"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="E191:E193"/>
-    <mergeCell ref="F191:F193"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="E182:E184"/>
-    <mergeCell ref="F182:F184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="E185:E187"/>
-    <mergeCell ref="F185:F187"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="F176:F178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="F179:F181"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="E173:E175"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="F158:F160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="F155:F157"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="E288:E290"/>
+    <mergeCell ref="F288:F290"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="E282:E284"/>
+    <mergeCell ref="F282:F284"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="E285:E287"/>
+    <mergeCell ref="F285:F287"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="Pebble" tooltip="Loot (Final Fantasy XII)" display="http://finalfantasy.wikia.com/wiki/Loot_(Final_Fantasy_XII) - Pebble" xr:uid="{4FAC7DC2-7E58-4145-AF14-C71A3EA6FB74}"/>
